--- a/Public/doc/YRB/项目计划_袁茹兵.xlsx
+++ b/Public/doc/YRB/项目计划_袁茹兵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>活动信息查询新增修改删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告信息查询增删改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁茹兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +530,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -728,16 +740,36 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42864</v>
+      </c>
+      <c r="G10" s="8">
+        <v>42864</v>
+      </c>
+      <c r="H10" s="8">
+        <v>42864</v>
+      </c>
+      <c r="I10" s="8">
+        <v>42864</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="2"/>

--- a/Public/doc/YRB/项目计划_袁茹兵.xlsx
+++ b/Public/doc/YRB/项目计划_袁茹兵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>公告信息查询增删改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁茹兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券信息展示，增删改查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,7 +542,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -784,16 +796,36 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42865</v>
+      </c>
+      <c r="G12" s="8">
+        <v>42865</v>
+      </c>
+      <c r="H12" s="8">
+        <v>42865</v>
+      </c>
+      <c r="I12" s="8">
+        <v>42865</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="2"/>

--- a/Public/doc/YRB/项目计划_袁茹兵.xlsx
+++ b/Public/doc/YRB/项目计划_袁茹兵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>优惠券信息展示，增删改查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁茹兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事信息展示，增删改查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,7 +554,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -840,16 +852,36 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>42866</v>
+      </c>
+      <c r="G14" s="8">
+        <v>42866</v>
+      </c>
+      <c r="H14" s="8">
+        <v>42866</v>
+      </c>
+      <c r="I14" s="8">
+        <v>42866</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="2"/>
